--- a/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/7_Mar21_Mar22.xlsx
+++ b/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/7_Mar21_Mar22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="63" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar '21</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '21</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '21</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '21</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mar '22</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '21</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '21</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '21</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '21</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>76,882.32</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>70,921.28</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101,631.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>101,045.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>108,773.57</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>101,045.25</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101,631.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70,921.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>76,882.32</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>108773.57</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>70921.28</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>91850.818</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>76,882.32</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>70,921.28</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101,631.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>101,045.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>108,773.57</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>101,045.25</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>101,631.67</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>70,921.28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>76,882.32</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>108773.57</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>70921.28</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>91850.818</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>28,602.16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>26,805.25</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30,476.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36,966.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>44,459.52</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>36,966.88</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>30,476.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>26,805.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>28,602.16</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>44459.52</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>26805.25</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>33462.124</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>40,024.71</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>36,337.94</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43,078.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>53,744.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>55,925.37</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>53,744.41</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>43,078.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>36,337.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>40,024.71</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>55925.37</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>36337.94</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>45822.102</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-2,789.94</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-475.70</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-1,597.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>495.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>-2,711.24</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>495.38</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-1,597.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-475.70</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-2,789.94</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>495.38</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>-2789.94</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>-1415.734</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1,132.84</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>738.90</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>769.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>892.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>913.99</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>892.13</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>769.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>738.90</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1,132.84</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1132.84</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>738.9</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>889.458</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>999.76</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,144.58</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,168.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,168.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,273.55</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,168.01</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,168.13</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,144.58</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>999.76</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1273.55</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>999.76</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1150.806</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>4,854.70</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4,262.15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24,426.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4,733.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>5,936.59</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4,733.41</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>24,426.81</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4,262.15</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4,854.70</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>24426.81</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>4262.15</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>8842.732</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>4,058.09</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2,108.16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3,309.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3,045.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2,975.79</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3,045.03</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3,309.58</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2,108.16</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4,058.09</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>4058.09</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>2108.16</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>3099.33</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>1,664.01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>451.72</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>680.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>682.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>597.59</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>682.57</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>680.54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>451.72</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1,664.01</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1664.01</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>451.72</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>815.2860000000001</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>5,722.10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2,559.88</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3,990.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3,727.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>3,573.38</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3,727.60</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3,990.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2,559.88</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5,722.10</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>5722.1</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>2559.88</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>3914.616</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>477.61</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>486.68</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>394.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>445.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>533.83</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>445.95</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>394.02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>486.68</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>477.61</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>533.83</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>394.02</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>467.6180000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>5,244.49</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2,073.20</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3,596.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,281.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,039.55</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3,281.65</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3,596.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2,073.20</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5,244.49</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>5244.49</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2073.2</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3446.998</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>6,992.95</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-77.06</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-77.06</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6,992.95</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>6992.95</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>-77.06</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>3457.945</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>12,237.44</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1,996.14</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3,596.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3,281.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>3,039.55</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3,281.65</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3,596.10</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1,996.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>12,237.44</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>12237.44</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>1996.14</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>4830.176</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>297.31</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>494.49</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>902.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>819.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>909.02</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>819.20</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>902.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>494.49</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>297.31</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>909.02</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>297.31</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>684.404</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>11,940.13</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,501.65</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2,694.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2,462.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2,130.53</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2,462.45</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2,694.10</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1,501.65</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>11,940.13</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>11940.13</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1501.65</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>4145.772</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>11,940.13</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1,501.65</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2,694.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2,462.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2,130.53</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2,462.45</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2,694.10</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1,501.65</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>11,940.13</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>11940.13</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1501.65</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>4145.772</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>2,092.91</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2,129.40</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>2,129.45</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2,129.45</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2,129.45</t>
         </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2,129.40</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2,092.91</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>2129.45</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>2092.91</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>2122.132</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>59.77</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>10.01</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>11.56</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>12.65</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>59.77</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>59.77</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>20.214</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>59.32</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>10.01</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>11.56</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>12.65</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>59.32</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>59.32</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>20.124</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>59.77</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>10.01</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>11.56</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>12.65</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>59.77</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>59.77</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>20.214</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>59.32</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>10.01</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>11.56</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>12.65</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>59.32</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>59.32</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>20.124</v>
       </c>
     </row>
     <row r="31"/>
